--- a/medicine/Psychotrope/Château_Pichon_Longueville_Comtesse_de_Lalande/Château_Pichon_Longueville_Comtesse_de_Lalande.xlsx
+++ b/medicine/Psychotrope/Château_Pichon_Longueville_Comtesse_de_Lalande/Château_Pichon_Longueville_Comtesse_de_Lalande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon_Longueville_Comtesse_de_Lalande</t>
+          <t>Château_Pichon_Longueville_Comtesse_de_Lalande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château Pichon Longueville Comtesse de Lalande, est un domaine viticole de 85 ha[1] situé à Pauillac en Gironde. Situé en AOC pauillac, il est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
+Le château Pichon Longueville Comtesse de Lalande, est un domaine viticole de 85 ha situé à Pauillac en Gironde. Situé en AOC pauillac, il est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon_Longueville_Comtesse_de_Lalande</t>
+          <t>Château_Pichon_Longueville_Comtesse_de_Lalande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1850 après la mort du propriétaire, le baron Joseph de Pichon-Longueville (1760-1849), le domaine Pichon-Longueville est partagé entre le baron Raoul Pichon, donnant naissance au domaine de Pichon Baron, et ses trois sœurs, donnant naissance au domaine Pichon Comtesse. Virginie (1794-1882), une de ses filles, prend la direction du domaine et commande à l'architecte bordelais Henri Duphot, un château inspiré de l'hôtel de Lalande situé à Bordeaux où son mari Henri-Charles de Raymond (1788-1877)[2], comte de Lalande avait passé son enfance[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1850 après la mort du propriétaire, le baron Joseph de Pichon-Longueville (1760-1849), le domaine Pichon-Longueville est partagé entre le baron Raoul Pichon, donnant naissance au domaine de Pichon Baron, et ses trois sœurs, donnant naissance au domaine Pichon Comtesse. Virginie (1794-1882), une de ses filles, prend la direction du domaine et commande à l'architecte bordelais Henri Duphot, un château inspiré de l'hôtel de Lalande situé à Bordeaux où son mari Henri-Charles de Raymond (1788-1877), comte de Lalande avait passé son enfance.
 	Illustrations du château Pichon Longueville Comtesse de Lalande
 			En 1838.
 			En 1949.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon_Longueville_Comtesse_de_Lalande</t>
+          <t>Château_Pichon_Longueville_Comtesse_de_Lalande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Particularité pour un château de Pauillac, le domaine possède 11 hectares sur la commune de Saint-Julien[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Particularité pour un château de Pauillac, le domaine possède 11 hectares sur la commune de Saint-Julien.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Pichon_Longueville_Comtesse_de_Lalande</t>
+          <t>Château_Pichon_Longueville_Comtesse_de_Lalande</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le domaine produit deux vins :
 le grand vin, deuxième grand cru classé ;
